--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grasielly\Documents\Faculdade\2º Semestre\Cdados\P1\P1_CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63598bc19f8aeaea/Área de Trabalho/P1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53D6453-161D-4C3A-9A78-883D8A5508D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C53D6453-161D-4C3A-9A78-883D8A5508D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{953D6BBC-584C-4347-A903-566CB16D4822}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1999,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4419,6 +4419,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4428,7 +4433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A169" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>

--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -5,18 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63598bc19f8aeaea/Área de Trabalho/P1_CDados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grasielly\Documents\Faculdade\2º Semestre\Cdados\P1\P1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C53D6453-161D-4C3A-9A78-883D8A5508D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{953D6BBC-584C-4347-A903-566CB16D4822}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1602,7 +1613,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1612,6 +1623,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1654,13 +1673,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2001,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4420,12 +4440,11 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B302">
-        <v>0</v>
-      </c>
+      <c r="B302" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4433,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grasielly\Documents\Faculdade\2º Semestre\Cdados\P1\P1_CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63598bc19f8aeaea/Área de Trabalho/P1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78EF2008-EFE0-4C0D-8F4A-A8AFDBF2C2F1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2021,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2156,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2212,7 +2212,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -2948,7 +2948,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -3412,7 +3412,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -4452,7 +4452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>

--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63598bc19f8aeaea/Área de Trabalho/P1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78EF2008-EFE0-4C0D-8F4A-A8AFDBF2C2F1}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{745B7D65-62AA-4130-B762-4C4FD76BCBF9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4452,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4507,7 +4507,7 @@
         <v>306</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4571,7 +4571,7 @@
         <v>314</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4611,7 +4611,7 @@
         <v>319</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4755,7 +4755,7 @@
         <v>337</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -4771,7 +4771,7 @@
         <v>339</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -4779,7 +4779,7 @@
         <v>340</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -5603,7 +5603,7 @@
         <v>443</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -5771,7 +5771,7 @@
         <v>464</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -5779,7 +5779,7 @@
         <v>465</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -5891,7 +5891,7 @@
         <v>479</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -6067,7 +6067,7 @@
         <v>501</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">

--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63598bc19f8aeaea/Área de Trabalho/P1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{745B7D65-62AA-4130-B762-4C4FD76BCBF9}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F173814-8147-4B65-AF40-C71B5841F375}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2124,7 +2124,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2132,7 +2132,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2180,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -2260,7 +2260,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -2284,7 +2284,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -2396,7 +2396,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -2404,7 +2404,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -2428,7 +2428,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -2548,7 +2548,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2692,7 +2692,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2756,7 +2756,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2764,7 +2764,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2772,7 +2772,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2836,7 +2836,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -2932,7 +2932,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -3068,7 +3068,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -3076,7 +3076,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -3100,7 +3100,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -3108,7 +3108,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -3180,7 +3180,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -3220,7 +3220,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -3228,7 +3228,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -3236,7 +3236,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -3268,7 +3268,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -3372,7 +3372,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -3428,7 +3428,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -3580,7 +3580,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -3596,7 +3596,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -3612,7 +3612,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -3652,7 +3652,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -3708,7 +3708,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -3716,7 +3716,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -3740,7 +3740,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -3788,7 +3788,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -3804,7 +3804,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -3820,7 +3820,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
@@ -3828,7 +3828,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
@@ -3868,7 +3868,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
@@ -3916,7 +3916,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
@@ -3924,7 +3924,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
@@ -3948,7 +3948,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -3956,7 +3956,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -4004,7 +4004,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
@@ -4092,7 +4092,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
@@ -4124,7 +4124,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
@@ -4132,7 +4132,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
@@ -4140,7 +4140,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
@@ -4180,7 +4180,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
@@ -4212,7 +4212,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
@@ -4404,7 +4404,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
@@ -4412,7 +4412,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
@@ -4452,7 +4452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>

--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63598bc19f8aeaea/Área de Trabalho/P1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F173814-8147-4B65-AF40-C71B5841F375}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{893F69EC-6DFC-4AEA-9D76-D814645A5902}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2021,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView topLeftCell="A268" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
@@ -4452,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4475,7 +4475,7 @@
         <v>302</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4483,7 +4483,7 @@
         <v>303</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4515,7 +4515,7 @@
         <v>307</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4547,7 +4547,7 @@
         <v>311</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4587,7 +4587,7 @@
         <v>316</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4595,7 +4595,7 @@
         <v>317</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4619,7 +4619,7 @@
         <v>320</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4707,7 +4707,7 @@
         <v>331</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -4819,7 +4819,7 @@
         <v>345</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -4907,7 +4907,7 @@
         <v>356</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -4923,7 +4923,7 @@
         <v>358</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -4971,7 +4971,7 @@
         <v>364</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -4995,7 +4995,7 @@
         <v>367</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -5155,7 +5155,7 @@
         <v>387</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -5219,7 +5219,7 @@
         <v>395</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -5251,7 +5251,7 @@
         <v>399</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -5283,7 +5283,7 @@
         <v>403</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -5299,7 +5299,7 @@
         <v>405</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -5331,7 +5331,7 @@
         <v>409</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -5435,7 +5435,7 @@
         <v>422</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -5491,7 +5491,7 @@
         <v>429</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -5715,7 +5715,7 @@
         <v>457</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -5723,7 +5723,7 @@
         <v>458</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -5731,7 +5731,7 @@
         <v>459</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -5747,7 +5747,7 @@
         <v>461</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -5803,7 +5803,7 @@
         <v>468</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -5819,7 +5819,7 @@
         <v>470</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -5851,7 +5851,7 @@
         <v>474</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -5907,7 +5907,7 @@
         <v>481</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -5923,7 +5923,7 @@
         <v>483</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -5939,7 +5939,7 @@
         <v>485</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -5987,7 +5987,7 @@
         <v>491</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -5995,7 +5995,7 @@
         <v>492</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -6003,7 +6003,7 @@
         <v>493</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -6035,7 +6035,7 @@
         <v>497</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -6059,7 +6059,7 @@
         <v>500</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -6075,6 +6075,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63598bc19f8aeaea/Área de Trabalho/P1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{893F69EC-6DFC-4AEA-9D76-D814645A5902}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{177CA932-A524-4608-9DC2-9349352313C6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4052,7 +4052,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
@@ -4068,7 +4068,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
@@ -4244,7 +4244,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
@@ -4372,7 +4372,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
@@ -4428,7 +4428,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
@@ -4452,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView topLeftCell="A174" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63598bc19f8aeaea/Área de Trabalho/P1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{177CA932-A524-4608-9DC2-9349352313C6}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{268968C0-D895-47C3-87E0-2F17C9C4295B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3484,7 +3484,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -3860,7 +3860,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -3988,7 +3988,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">

--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63598bc19f8aeaea/Área de Trabalho/P1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{268968C0-D895-47C3-87E0-2F17C9C4295B}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C921803-746A-4ABB-ACC0-2865CCC153C6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2204,7 +2204,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -2436,7 +2436,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -2460,7 +2460,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -3124,7 +3124,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -3340,7 +3340,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">

--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63598bc19f8aeaea/Área de Trabalho/P1_CDados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quezi\OneDrive\Área de Trabalho\P1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{60060650-8C21-4B82-B3B9-C6494DD40565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C921803-746A-4ABB-ACC0-2865CCC153C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084935C-2D7B-45FD-A938-7A916FA7E3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2021,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4452,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4499,7 +4499,7 @@
         <v>305</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4563,7 +4563,7 @@
         <v>313</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4627,7 +4627,7 @@
         <v>321</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4787,7 +4787,7 @@
         <v>341</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -4947,7 +4947,7 @@
         <v>361</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">

--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quezi\OneDrive\Área de Trabalho\P1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084935C-2D7B-45FD-A938-7A916FA7E3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F17C86A-B36A-4B09-A28C-D25A1F438018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ROCK IN RIO.xlsx
+++ b/ROCK IN RIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quezi\OneDrive\Área de Trabalho\P1_CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63598bc19f8aeaea/Área de Trabalho/P1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F17C86A-B36A-4B09-A28C-D25A1F438018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{2F17C86A-B36A-4B09-A28C-D25A1F438018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBAE660C-9C76-46FF-810B-FF1EE80C4A8A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2572,7 +2572,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2828,7 +2828,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -2940,7 +2940,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -2964,7 +2964,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -3012,7 +3012,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -3052,7 +3052,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -3148,7 +3148,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -3156,7 +3156,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -3212,7 +3212,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -3332,7 +3332,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -3684,7 +3684,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -3700,7 +3700,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -3884,7 +3884,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
@@ -3972,7 +3972,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
@@ -4164,7 +4164,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
@@ -4452,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4563,7 +4563,7 @@
         <v>313</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -5379,7 +5379,7 @@
         <v>415</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -5619,7 +5619,7 @@
         <v>445</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -5747,7 +5747,7 @@
         <v>461</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
